--- a/data/阅卷结果模板.xlsx
+++ b/data/阅卷结果模板.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="阅卷结果" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>考试时间：</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -56,11 +56,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>分数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>阅卷结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客观分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主观分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总分</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -147,12 +155,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -457,59 +463,63 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:I50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="22.88671875" style="1" customWidth="1"/>
-    <col min="3" max="5" width="8.88671875" style="4"/>
-    <col min="6" max="6" width="40.44140625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="12" style="4" customWidth="1"/>
+    <col min="3" max="4" width="8.88671875" style="4"/>
+    <col min="5" max="5" width="12.21875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.44140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.21875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="40.44140625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="12" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="28.2" x14ac:dyDescent="0.4">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:9" ht="28.2" x14ac:dyDescent="0.4">
+      <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="6"/>
+      <c r="H2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="3"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="3"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -522,22 +532,301 @@
       <c r="D4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E6" s="5"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G5" s="1">
+        <f t="shared" ref="G5:G50" si="0">SUM(E5:F5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G6" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G7" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G8" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G9" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G10" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G11" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G12" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G13" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G14" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G15" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G16" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G17" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G18" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G19" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G20" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G21" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G22" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G23" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G24" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G25" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G26" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G27" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G28" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G29" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G30" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G31" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G32" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G33" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G34" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G35" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G36" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G37" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G38" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G39" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G40" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G41" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G42" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G43" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G44" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G45" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G46" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G47" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G48" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G49" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G50" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A1:I1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
